--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,264 +52,261 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>strong</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -319,22 +316,28 @@
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>want</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>health</t>
@@ -343,55 +346,61 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>delivery</t>
-  </si>
-  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>social</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>social</t>
+    <t>us</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -757,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -889,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -918,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,16 +998,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L6">
         <v>44</v>
       </c>
-      <c r="K6">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L6">
-        <v>32</v>
-      </c>
       <c r="M6">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,13 +1027,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1077,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.9565217391304348</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1118,13 +1127,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6986301369863014</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.9473684210526315</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1177,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.9375</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6538461538461539</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,16 +1248,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5666666666666667</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L12">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
       <c r="M12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1318,37 +1327,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,16 +1398,16 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8666666666666667</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,16 +1448,16 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1477,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.8482142857142857</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,10 +1530,10 @@
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.8414634146341463</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1577,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.828125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1627,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4166666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8214285714285714</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1677,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4054054054054054</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L20">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1727,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1777,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3914728682170542</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C22">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.7758620689655172</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1827,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3758389261744967</v>
+        <v>0.3992248062015504</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1877,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3725490196078431</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.7619047619047619</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1927,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.36</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +1977,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3068783068783069</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2027,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.288135593220339</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7391304347826086</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2077,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.7264150943396226</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L28">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2127,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2777777777777778</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.7254901960784313</v>
+        <v>0.7125</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,7 +2177,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2372881355932203</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -2186,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.723404255319149</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2227,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2363636363636364</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.71875</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L31">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2277,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2125</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.7083333333333334</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2327,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2023809523809524</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.6914893617021277</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2377,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09651474530831099</v>
+        <v>0.25</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,45 +2395,69 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>337</v>
+        <v>60</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.6785714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="C35">
         <v>19</v>
       </c>
-      <c r="M34">
+      <c r="D35">
         <v>19</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>71</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2436,21 +2469,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>204</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.64</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2462,47 +2519,95 @@
         <v>0</v>
       </c>
       <c r="Q36">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1233243967828418</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>327</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.5911764705882353</v>
+      </c>
+      <c r="L37">
+        <v>201</v>
+      </c>
+      <c r="M37">
+        <v>201</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.004417797412432944</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>0.7</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3155</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L38">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.6214099216710183</v>
-      </c>
-      <c r="L37">
-        <v>238</v>
-      </c>
-      <c r="M37">
-        <v>238</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.6058823529411764</v>
-      </c>
-      <c r="L38">
-        <v>206</v>
-      </c>
       <c r="M38">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2514,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2540,12 +2645,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K40">
         <v>0.5777777777777777</v>
@@ -2571,16 +2676,16 @@
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.575</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2592,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K42">
         <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2618,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2644,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.5525423728813559</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L44">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2670,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.5483870967741935</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2696,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.5454545454545454</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2722,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.5393258426966292</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2748,21 +2853,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>0.5384615384615384</v>
+        <v>0.4937238493723849</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2774,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>0.5357142857142857</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2800,47 +2905,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K50">
-        <v>0.5348837209302325</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K51">
-        <v>0.525</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2852,21 +2957,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K52">
-        <v>0.5161290322580645</v>
+        <v>0.453125</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2878,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K53">
-        <v>0.4853556485355648</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L53">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2904,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K54">
-        <v>0.4814814814814815</v>
+        <v>0.4</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2930,21 +3035,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K55">
-        <v>0.46875</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2956,21 +3061,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K56">
-        <v>0.4615384615384616</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2982,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K57">
-        <v>0.4487179487179487</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L57">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3008,15 +3113,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K58">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="L58">
         <v>18</v>
@@ -3034,21 +3139,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K59">
-        <v>0.4246575342465753</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3060,21 +3165,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K60">
-        <v>0.4</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3086,21 +3191,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K61">
-        <v>0.3829787234042553</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3112,21 +3217,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K62">
-        <v>0.3278688524590164</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3138,21 +3243,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>41</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K63">
-        <v>0.288135593220339</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3164,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K64">
-        <v>0.2638888888888889</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3190,21 +3295,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K65">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3216,21 +3321,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K66">
-        <v>0.1574803149606299</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3242,21 +3347,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K67">
-        <v>0.1348837209302326</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3268,47 +3373,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>186</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K68">
-        <v>0.1244019138755981</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L68">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>366</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K69">
-        <v>0.1221374045801527</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3320,21 +3425,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K70">
-        <v>0.1105769230769231</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L70">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3346,47 +3451,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>370</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K71">
-        <v>0.1074766355140187</v>
+        <v>0.1007838745800672</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>191</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K72">
-        <v>0.0948905109489051</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3398,21 +3503,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K73">
-        <v>0.09433962264150944</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3424,21 +3529,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K74">
-        <v>0.09090909090909091</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3450,21 +3555,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K75">
-        <v>0.0872093023255814</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3476,21 +3581,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K76">
-        <v>0.08612975391498881</v>
+        <v>0.06548279689234185</v>
       </c>
       <c r="L76">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="M76">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3502,21 +3607,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>817</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K77">
-        <v>0.07547169811320754</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="L77">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3528,47 +3633,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>833</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K78">
-        <v>0.07339449541284404</v>
+        <v>0.04971098265895954</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M78">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>303</v>
+        <v>822</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K79">
-        <v>0.06086956521739131</v>
+        <v>0.04892966360856269</v>
       </c>
       <c r="L79">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3580,215 +3685,215 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>216</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K80">
-        <v>0.04468412942989214</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>620</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K81">
-        <v>0.04320987654320987</v>
+        <v>0.04806201550387597</v>
       </c>
       <c r="L81">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M81">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>465</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K82">
-        <v>0.04207573632538569</v>
+        <v>0.03695042095416277</v>
       </c>
       <c r="L82">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M82">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2049</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K83">
-        <v>0.03233256351039261</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="L83">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>838</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K84">
-        <v>0.03003533568904593</v>
+        <v>0.02688728024819028</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>549</v>
+        <v>941</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K85">
-        <v>0.02485474499677211</v>
+        <v>0.02296819787985866</v>
       </c>
       <c r="L85">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M85">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="N85">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O85">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>3021</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K86">
-        <v>0.02171664943123061</v>
+        <v>0.01998710509348807</v>
       </c>
       <c r="L86">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>946</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>0.01064495929868503</v>
+        <v>0.01004079071226859</v>
       </c>
       <c r="L87">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M87">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N87">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
       <c r="O87">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3160</v>
+        <v>3155</v>
       </c>
     </row>
   </sheetData>
